--- a/src/main/Horary Model Regular.xlsx
+++ b/src/main/Horary Model Regular.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\Control-Horarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayos\Documents\GitHub\Control-Horarios\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3700AA34-8141-426B-ACA2-1A0F528D2C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B702E33-0180-487B-B355-B7E6CDCEE527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="37">
   <si>
     <t>Festivo nacional</t>
   </si>
@@ -145,6 +145,9 @@
   <si>
     <t>Diciembre</t>
   </si>
+  <si>
+    <t>Días Restantes de Vacaciones</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +223,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -383,7 +393,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -440,6 +450,9 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -876,27 +889,27 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -905,7 +918,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -914,7 +927,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -923,34 +936,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -958,11 +971,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -970,11 +983,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -982,11 +995,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -994,11 +1007,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1008,8 +1021,12 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1020,8 +1037,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="25">
         <v>1</v>
       </c>
@@ -1032,7 +1053,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="25">
         <v>2</v>
       </c>
@@ -1043,7 +1064,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="25">
         <v>3</v>
       </c>
@@ -1054,7 +1075,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>4</v>
       </c>
@@ -1065,7 +1086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>5</v>
       </c>
@@ -1076,7 +1097,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>6</v>
       </c>
@@ -1087,7 +1108,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="25">
         <v>7</v>
       </c>
@@ -1098,7 +1119,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="25">
         <v>8</v>
       </c>
@@ -1109,7 +1130,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="25">
         <v>9</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="25">
         <v>10</v>
       </c>
@@ -1131,7 +1152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="25">
         <v>11</v>
       </c>
@@ -1142,7 +1163,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="25">
         <v>12</v>
       </c>
@@ -1153,7 +1174,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="25">
         <v>13</v>
       </c>
@@ -1164,7 +1185,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="25">
         <v>14</v>
       </c>
@@ -1175,7 +1196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>15</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="25">
         <v>16</v>
       </c>
@@ -1197,7 +1218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="25">
         <v>17</v>
       </c>
@@ -1208,7 +1229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="25">
         <v>18</v>
       </c>
@@ -1219,7 +1240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="25">
         <v>19</v>
       </c>
@@ -1230,7 +1251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="25">
         <v>20</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="25">
         <v>21</v>
       </c>
@@ -1252,7 +1273,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="25">
         <v>22</v>
       </c>
@@ -1263,7 +1284,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="25">
         <v>23</v>
       </c>
@@ -1274,7 +1295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="25">
         <v>24</v>
       </c>
@@ -1285,7 +1306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="25">
         <v>25</v>
       </c>
@@ -1296,7 +1317,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="25">
         <v>26</v>
       </c>
@@ -1307,7 +1328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="25">
         <v>27</v>
       </c>
@@ -1318,7 +1339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="25">
         <v>28</v>
       </c>
@@ -1329,7 +1350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <v>29</v>
       </c>
@@ -1340,7 +1361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="25">
         <v>30</v>
       </c>
@@ -1351,7 +1372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="25">
         <v>31</v>
       </c>
@@ -1362,17 +1383,23 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="27"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1380,7 +1407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -1398,52 +1425,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1464,66 +1491,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6486AC-E003-4CAB-A4AB-BA9BC6FF6CEA}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1531,11 +1558,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1543,11 +1570,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1555,11 +1582,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1567,11 +1594,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1581,8 +1608,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1593,8 +1623,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -1605,7 +1639,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -1616,7 +1650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -1627,7 +1661,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -1638,7 +1672,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -1649,7 +1683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -1660,7 +1694,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -1671,7 +1705,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -1682,7 +1716,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -1693,7 +1727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -1704,7 +1738,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -1715,7 +1749,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -1726,7 +1760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -1737,7 +1771,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -1748,7 +1782,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -1759,7 +1793,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -1770,7 +1804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -1781,7 +1815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -1792,7 +1826,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -1803,7 +1837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -1814,7 +1848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -1825,7 +1859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -1836,7 +1870,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -1847,7 +1881,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -1858,7 +1892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -1869,7 +1903,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -1880,7 +1914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -1891,7 +1925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -1902,7 +1936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -1913,7 +1947,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -1924,7 +1958,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -1935,17 +1969,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -1953,7 +1987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -1971,52 +2005,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2036,66 +2070,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8740F8E4-54E9-4FB6-8D9A-49E25F55FD76}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2103,11 +2137,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2115,11 +2149,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2127,11 +2161,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2139,11 +2173,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -2153,8 +2187,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2165,8 +2202,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -2177,7 +2218,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -2188,7 +2229,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -2199,7 +2240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -2210,7 +2251,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -2221,7 +2262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -2232,7 +2273,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -2243,7 +2284,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -2254,7 +2295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -2265,7 +2306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -2276,7 +2317,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -2287,7 +2328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -2298,7 +2339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -2309,7 +2350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -2320,7 +2361,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -2331,7 +2372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -2342,7 +2383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -2353,7 +2394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -2364,7 +2405,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -2375,7 +2416,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -2386,7 +2427,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -2397,7 +2438,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -2408,7 +2449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -2419,7 +2460,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -2430,7 +2471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -2441,7 +2482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -2452,7 +2493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -2463,7 +2504,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -2474,7 +2515,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -2485,7 +2526,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -2496,17 +2537,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -2514,7 +2555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -2532,52 +2573,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2597,66 +2638,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3618790-2BCB-4B60-BBFB-C820F665B2BD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:H62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2664,11 +2705,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2676,11 +2717,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2688,11 +2729,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -2700,11 +2741,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -2714,8 +2755,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2726,8 +2770,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -2738,7 +2786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -2749,7 +2797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -2760,7 +2808,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -2771,7 +2819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -2782,7 +2830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -2793,7 +2841,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -2804,7 +2852,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -2815,7 +2863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -2826,7 +2874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -2837,7 +2885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -2848,7 +2896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -2859,7 +2907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -2870,7 +2918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -2881,7 +2929,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -2892,7 +2940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -2903,7 +2951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -2914,7 +2962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -2925,7 +2973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -2936,7 +2984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -2947,7 +2995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -2958,7 +3006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -2969,7 +3017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -2980,7 +3028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -2991,7 +3039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -3002,7 +3050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -3013,7 +3061,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -3024,7 +3072,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -3035,7 +3083,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -3046,7 +3094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -3057,7 +3105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -3068,17 +3116,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -3086,7 +3134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3104,52 +3152,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3169,27 +3217,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E731D6A-1AF2-42E7-AE13-0257C1BC47F0}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -3198,7 +3246,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -3207,7 +3255,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -3216,34 +3264,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3251,11 +3299,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3263,11 +3311,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3275,11 +3323,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3287,11 +3335,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3301,8 +3349,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -3313,8 +3364,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <v>1</v>
       </c>
@@ -3325,7 +3380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <v>2</v>
       </c>
@@ -3336,7 +3391,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <v>3</v>
       </c>
@@ -3347,7 +3402,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>4</v>
       </c>
@@ -3358,7 +3413,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>5</v>
       </c>
@@ -3369,7 +3424,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>6</v>
       </c>
@@ -3380,7 +3435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>7</v>
       </c>
@@ -3391,7 +3446,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>8</v>
       </c>
@@ -3402,7 +3457,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>9</v>
       </c>
@@ -3413,7 +3468,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <v>10</v>
       </c>
@@ -3424,7 +3479,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>11</v>
       </c>
@@ -3435,7 +3490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <v>12</v>
       </c>
@@ -3446,7 +3501,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>13</v>
       </c>
@@ -3457,7 +3512,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="20">
         <v>14</v>
       </c>
@@ -3468,7 +3523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="20">
         <v>15</v>
       </c>
@@ -3479,7 +3534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="20">
         <v>16</v>
       </c>
@@ -3490,7 +3545,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="20">
         <v>17</v>
       </c>
@@ -3501,7 +3556,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="20">
         <v>18</v>
       </c>
@@ -3512,7 +3567,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="20">
         <v>19</v>
       </c>
@@ -3523,7 +3578,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="20">
         <v>20</v>
       </c>
@@ -3534,7 +3589,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="20">
         <v>21</v>
       </c>
@@ -3545,7 +3600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="20">
         <v>22</v>
       </c>
@@ -3556,7 +3611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="20">
         <v>23</v>
       </c>
@@ -3567,7 +3622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="20">
         <v>24</v>
       </c>
@@ -3578,7 +3633,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="20">
         <v>25</v>
       </c>
@@ -3589,7 +3644,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="20">
         <v>26</v>
       </c>
@@ -3600,7 +3655,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="20">
         <v>27</v>
       </c>
@@ -3611,7 +3666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="20">
         <v>28</v>
       </c>
@@ -3622,29 +3677,30 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G47" s="14">
         <f>SUM(G16:G45)</f>
         <v>-28</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="27"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -3652,7 +3708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -3670,7 +3726,7 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -3679,52 +3735,52 @@
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3744,27 +3800,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE4023-35E9-4427-A2E3-62E45B00EDF5}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -3773,7 +3829,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -3782,7 +3838,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -3791,34 +3847,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3826,11 +3882,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3838,11 +3894,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -3850,11 +3906,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -3862,11 +3918,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -3876,8 +3932,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -3888,8 +3947,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -3900,7 +3963,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -3911,7 +3974,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -3922,7 +3985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -3933,7 +3996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -3944,7 +4007,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -3955,7 +4018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -3966,7 +4029,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -3977,7 +4040,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -3988,7 +4051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -3999,7 +4062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -4010,7 +4073,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -4021,7 +4084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -4032,7 +4095,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -4043,7 +4106,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -4054,7 +4117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -4065,7 +4128,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -4076,7 +4139,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -4087,7 +4150,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -4098,7 +4161,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -4109,7 +4172,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -4120,7 +4183,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -4131,7 +4194,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -4142,7 +4205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -4153,7 +4216,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -4164,7 +4227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -4175,7 +4238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -4186,7 +4249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -4197,7 +4260,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -4208,7 +4271,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -4219,7 +4282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -4230,17 +4293,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -4248,7 +4311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -4268,52 +4331,52 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4333,27 +4396,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C68094-695E-4DEE-9781-A162D3F8C272}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -4362,7 +4425,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -4371,7 +4434,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -4380,34 +4443,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -4415,11 +4478,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -4427,11 +4490,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -4439,11 +4502,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -4451,11 +4514,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -4465,8 +4528,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -4477,8 +4543,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -4489,7 +4559,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -4500,7 +4570,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -4511,7 +4581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -4522,7 +4592,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -4533,7 +4603,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -4544,7 +4614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -4555,7 +4625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -4566,7 +4636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -4577,7 +4647,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -4588,7 +4658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -4599,7 +4669,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -4610,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -4621,7 +4691,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -4632,7 +4702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -4643,7 +4713,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -4654,7 +4724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -4665,7 +4735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -4676,7 +4746,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -4687,7 +4757,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -4698,7 +4768,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -4709,7 +4779,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -4720,7 +4790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -4731,7 +4801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -4742,7 +4812,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -4753,7 +4823,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -4764,7 +4834,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -4775,7 +4845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -4786,7 +4856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -4797,7 +4867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -4808,22 +4878,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -4831,7 +4901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -4849,52 +4919,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4914,27 +4984,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67EED29-FE3C-458D-A7F1-9E7329998434}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
@@ -4943,7 +5013,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
@@ -4952,7 +5022,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
@@ -4961,34 +5031,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J5"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -4996,11 +5066,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -5008,11 +5078,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -5020,11 +5090,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -5032,11 +5102,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -5046,8 +5116,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -5058,8 +5131,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -5070,7 +5147,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -5081,7 +5158,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -5092,7 +5169,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -5103,7 +5180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -5114,7 +5191,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -5125,7 +5202,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -5136,7 +5213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -5147,7 +5224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -5158,7 +5235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -5169,7 +5246,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -5180,7 +5257,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -5191,7 +5268,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -5202,7 +5279,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -5213,7 +5290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -5224,7 +5301,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -5235,7 +5312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -5246,7 +5323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -5257,7 +5334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -5268,7 +5345,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -5279,7 +5356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -5290,7 +5367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -5301,7 +5378,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -5312,7 +5389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -5323,7 +5400,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -5334,7 +5411,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -5345,7 +5422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -5356,7 +5433,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -5367,7 +5444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -5378,7 +5455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -5389,7 +5466,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -5400,17 +5477,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -5418,7 +5495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -5436,52 +5513,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5501,66 +5578,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6AC2CD-893F-41C5-9C9B-6E61F154DBF8}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -5568,11 +5645,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -5580,11 +5657,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -5592,11 +5669,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -5604,16 +5681,16 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -5623,8 +5700,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -5635,8 +5715,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -5647,7 +5731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -5658,7 +5742,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -5669,7 +5753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -5680,7 +5764,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -5691,7 +5775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -5702,7 +5786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -5713,7 +5797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -5724,7 +5808,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -5735,7 +5819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -5746,7 +5830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -5757,7 +5841,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -5768,7 +5852,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -5779,7 +5863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -5790,7 +5874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -5801,7 +5885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -5812,7 +5896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -5823,7 +5907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -5834,7 +5918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -5845,7 +5929,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -5856,7 +5940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -5867,7 +5951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -5878,7 +5962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -5889,7 +5973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -5900,7 +5984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -5911,7 +5995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -5922,7 +6006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -5933,7 +6017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -5944,7 +6028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -5955,7 +6039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -5966,17 +6050,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -5984,7 +6068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -6002,52 +6086,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6068,66 +6152,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31BE021-B7E6-4F89-B7B6-87A6EC5D824F}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -6135,11 +6219,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6147,11 +6231,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -6159,11 +6243,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -6171,11 +6255,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -6185,8 +6269,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -6197,8 +6284,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -6209,7 +6300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -6220,7 +6311,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -6231,7 +6322,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -6242,7 +6333,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -6253,7 +6344,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -6264,7 +6355,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -6275,7 +6366,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -6286,7 +6377,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -6297,7 +6388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -6308,7 +6399,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -6319,7 +6410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -6330,7 +6421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -6341,7 +6432,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -6352,7 +6443,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -6363,7 +6454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -6374,7 +6465,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -6385,7 +6476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -6396,7 +6487,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -6407,7 +6498,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -6418,7 +6509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -6429,7 +6520,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -6440,7 +6531,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -6451,7 +6542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -6462,7 +6553,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -6473,7 +6564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -6484,7 +6575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -6495,7 +6586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -6506,7 +6597,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -6517,7 +6608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -6528,7 +6619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -6539,17 +6630,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -6557,7 +6648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -6575,52 +6666,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6640,66 +6731,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF978304-926E-4C89-893F-97ABC2FEF105}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -6707,11 +6798,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6719,11 +6810,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -6731,11 +6822,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -6743,11 +6834,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -6757,8 +6848,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -6769,8 +6863,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -6781,7 +6879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -6792,7 +6890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -6803,7 +6901,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -6814,7 +6912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -6825,7 +6923,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -6836,7 +6934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -6847,7 +6945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -6858,7 +6956,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -6869,7 +6967,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -6880,7 +6978,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -6891,7 +6989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -6902,7 +7000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -6913,7 +7011,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -6924,7 +7022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -6935,7 +7033,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -6946,7 +7044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -6957,7 +7055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -6968,7 +7066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -6979,7 +7077,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -6990,7 +7088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -7001,7 +7099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -7012,7 +7110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -7023,7 +7121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -7034,7 +7132,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -7045,7 +7143,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -7056,7 +7154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -7067,7 +7165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -7078,7 +7176,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -7089,7 +7187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -7100,7 +7198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>31</v>
       </c>
@@ -7111,17 +7209,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-31</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -7129,7 +7227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7147,52 +7245,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7212,66 +7310,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A203EC-78E1-474A-A815-50A7240493FD}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1"/>
-    <col min="10" max="10" width="5.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.88671875" style="1"/>
+    <col min="4" max="4" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="5.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J2" s="22"/>
       <c r="K2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J3" s="23"/>
       <c r="K3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J4" s="21"/>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="J6" s="30" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -7279,11 +7377,11 @@
       <c r="E8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -7291,11 +7389,11 @@
       <c r="E9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -7303,11 +7401,11 @@
       <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -7315,11 +7413,11 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
@@ -7329,8 +7427,11 @@
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
@@ -7341,8 +7442,12 @@
         <v>18</v>
       </c>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="27">
+        <f>(G49-G47)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>1</v>
       </c>
@@ -7353,7 +7458,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -7364,7 +7469,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>3</v>
       </c>
@@ -7375,7 +7480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>4</v>
       </c>
@@ -7386,7 +7491,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>5</v>
       </c>
@@ -7397,7 +7502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>6</v>
       </c>
@@ -7408,7 +7513,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>7</v>
       </c>
@@ -7419,7 +7524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>8</v>
       </c>
@@ -7430,7 +7535,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>9</v>
       </c>
@@ -7441,7 +7546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>10</v>
       </c>
@@ -7452,7 +7557,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>11</v>
       </c>
@@ -7463,7 +7568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>12</v>
       </c>
@@ -7474,7 +7579,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -7485,7 +7590,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>14</v>
       </c>
@@ -7496,7 +7601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>15</v>
       </c>
@@ -7507,7 +7612,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>16</v>
       </c>
@@ -7518,7 +7623,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>17</v>
       </c>
@@ -7529,7 +7634,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>18</v>
       </c>
@@ -7540,7 +7645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>19</v>
       </c>
@@ -7551,7 +7656,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>20</v>
       </c>
@@ -7562,7 +7667,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>21</v>
       </c>
@@ -7573,7 +7678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>22</v>
       </c>
@@ -7584,7 +7689,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>23</v>
       </c>
@@ -7595,7 +7700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>24</v>
       </c>
@@ -7606,7 +7711,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>25</v>
       </c>
@@ -7617,7 +7722,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>26</v>
       </c>
@@ -7628,7 +7733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>27</v>
       </c>
@@ -7639,7 +7744,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>28</v>
       </c>
@@ -7650,7 +7755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>29</v>
       </c>
@@ -7661,7 +7766,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>30</v>
       </c>
@@ -7672,17 +7777,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E47" s="13"/>
       <c r="G47" s="14">
         <f>SUM(G16:G46)</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G49" s="14"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
@@ -7690,7 +7795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7708,52 +7813,52 @@
       </c>
       <c r="G54" s="19"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
